--- a/bank statement generator/bank_statements/statement_66.xlsx
+++ b/bank statement generator/bank_statements/statement_66.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 21.07.2024</t>
+          <t>KONTOSTAND AM 23.01.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,110 +759,110 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>25.07.</t>
+          <t>27.01.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>26.07.</t>
+          <t>28.01.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG SHELL TANKSTELLE</t>
+          <t>RECHNUNG VODAFONE GMBH 65769082</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>45,84-</t>
+          <t>39,36-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>29.07.</t>
+          <t>30.01.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>30.07.</t>
+          <t>31.01.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL KTCUBR</t>
+          <t>KARTENZAHLUNG SHELL TANKSTELLE</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>64,80-</t>
+          <t>76,80-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>31.07.</t>
+          <t>01.02.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>01.08.</t>
+          <t>02.02.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./31.07 EDEKA RO</t>
+          <t>KARTENZAHLUNG JET TANKSTELLE</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>89,24-</t>
+          <t>61,71-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>01.08.</t>
+          <t>03.02.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>02.08.</t>
+          <t>04.02.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>AMAZON.DE MKTPLC EU PCKKTB</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>138,69-</t>
+          <t>25,18-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>05.08.</t>
+          <t>04.02.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>06.08.</t>
+          <t>05.02.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-13194129</t>
+          <t>MCDONALDS Badibling</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>53,40-</t>
+          <t>35,48-</t>
         </is>
       </c>
     </row>
@@ -877,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 10.08.2024</t>
+          <t>KONTOSTAND AM 09.02.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>391,97-</t>
+          <t>238,53-</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 17.08.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 16.02.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
